--- a/docs/StructureDefinition-CondicionLE.xlsx
+++ b/docs/StructureDefinition-CondicionLE.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T01:53:31-03:00</t>
+    <t>2023-01-17T23:45:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
